--- a/Data IOD Weekly.xlsx
+++ b/Data IOD Weekly.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37a0ce551f5721cc/Documents/RNN Jaya/RNN-Jaya/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D52436-CF90-4443-9234-9C41369BD48E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{54D52436-CF90-4443-9234-9C41369BD48E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36F43079-90A9-40DF-A1FE-C8F2E74D0683}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{A702909F-6F04-4ABF-928A-F401656C7870}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="321">
   <si>
     <t>0.06</t>
   </si>
@@ -982,6 +982,12 @@
   </si>
   <si>
     <t>Nilai IOD</t>
+  </si>
+  <si>
+    <t>20/20096</t>
+  </si>
+  <si>
+    <t>14/12/20081</t>
   </si>
 </sst>
 </file>
@@ -1017,9 +1023,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1338,13 +1347,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76AF10E6-7382-4817-9A58-018658E5AF3D}">
   <dimension ref="A1:B847"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B43" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="14.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="10" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -1358,488 +1367,488 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>20080803</v>
+      <c r="A2" s="2">
+        <v>39663</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>20080810</v>
+      <c r="A3" s="2">
+        <v>39670</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>20080817</v>
+      <c r="A4" s="2">
+        <v>39677</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>20080824</v>
+      <c r="A5" s="2">
+        <v>39684</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>20080831</v>
+      <c r="A6" s="2">
+        <v>39691</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>20080907</v>
+      <c r="A7" s="2">
+        <v>39698</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>20080914</v>
+      <c r="A8" s="2">
+        <v>39705</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>20080921</v>
+      <c r="A9" s="2">
+        <v>39712</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>20080928</v>
+      <c r="A10" s="2">
+        <v>39719</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>20081005</v>
+      <c r="A11" s="2">
+        <v>39726</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>20081012</v>
+      <c r="A12" s="2">
+        <v>39733</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>20081019</v>
+      <c r="A13" s="2">
+        <v>39740</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>20081026</v>
+      <c r="A14" s="2">
+        <v>39747</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>20081102</v>
+      <c r="A15" s="2">
+        <v>39754</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>20081109</v>
+      <c r="A16" s="2">
+        <v>39761</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>20081116</v>
+      <c r="A17" s="2">
+        <v>39768</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>20081123</v>
+      <c r="A18" s="2">
+        <v>39775</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>20081130</v>
+      <c r="A19" s="2">
+        <v>39782</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>20081207</v>
+      <c r="A20" s="2">
+        <v>39789</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>20081214</v>
+      <c r="A21" s="1" t="s">
+        <v>320</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>20081221</v>
+      <c r="A22" s="2">
+        <v>39803</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>20081228</v>
+      <c r="A23" s="2">
+        <v>39810</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>20090104</v>
+      <c r="A24" s="2">
+        <v>39817</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>20090111</v>
+      <c r="A25" s="2">
+        <v>39824</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>20090118</v>
+      <c r="A26" s="2">
+        <v>39831</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>20090125</v>
+      <c r="A27" s="2">
+        <v>39838</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>20090201</v>
+      <c r="A28" s="2">
+        <v>39845</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>20090208</v>
+      <c r="A29" s="2">
+        <v>39852</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>20090215</v>
+      <c r="A30" s="2">
+        <v>39859</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>20090222</v>
+      <c r="A31" s="2">
+        <v>39866</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>20090301</v>
+      <c r="A32" s="2">
+        <v>39873</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>20090308</v>
+      <c r="A33" s="2">
+        <v>39880</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>20090315</v>
+      <c r="A34" s="2">
+        <v>39887</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>20090322</v>
+      <c r="A35" s="2">
+        <v>39894</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>20090329</v>
+      <c r="A36" s="2">
+        <v>39901</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>20090405</v>
+      <c r="A37" s="2">
+        <v>39908</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>20090412</v>
+      <c r="A38" s="2">
+        <v>39915</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>20090419</v>
+      <c r="A39" s="2">
+        <v>39922</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>20090426</v>
+      <c r="A40" s="2">
+        <v>39929</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>20090503</v>
+      <c r="A41" s="2">
+        <v>39936</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>20090510</v>
+      <c r="A42" s="2">
+        <v>39943</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>20090517</v>
+      <c r="A43" s="2">
+        <v>39950</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>20090524</v>
+      <c r="A44" s="2">
+        <v>39957</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>20090531</v>
+      <c r="A45" s="2">
+        <v>39964</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>20090607</v>
+      <c r="A46" s="2">
+        <v>39971</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>20090614</v>
+      <c r="A47" s="2">
+        <v>39978</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>20090621</v>
+      <c r="A48" s="2">
+        <v>39985</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <v>20090628</v>
+      <c r="A49" s="2">
+        <v>39992</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>20090705</v>
+      <c r="A50" s="2">
+        <v>39999</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <v>20090712</v>
+      <c r="A51" s="2">
+        <v>40006</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <v>20090719</v>
+      <c r="A52" s="2">
+        <v>40013</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>20090726</v>
+      <c r="A53" s="2">
+        <v>40020</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>20090802</v>
+      <c r="A54" s="2">
+        <v>40027</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>20090809</v>
+      <c r="A55" s="2">
+        <v>40034</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>20090816</v>
+      <c r="A56" s="2">
+        <v>40041</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>20090823</v>
+      <c r="A57" s="2">
+        <v>40048</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>20090830</v>
+      <c r="A58" s="2">
+        <v>40055</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <v>20090906</v>
+      <c r="A59" s="2">
+        <v>40062</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <v>20090913</v>
+      <c r="A60" s="2">
+        <v>40069</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>20090920</v>
+      <c r="A61" s="2">
+        <v>40076</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>20090927</v>
+      <c r="A62" s="2">
+        <v>40083</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>53</v>
@@ -6390,8 +6399,8 @@
       </c>
     </row>
     <row r="631" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A631" s="1">
-        <v>20200906</v>
+      <c r="A631" s="1" t="s">
+        <v>319</v>
       </c>
       <c r="B631" s="1" t="s">
         <v>250</v>
@@ -8127,5 +8136,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>